--- a/G35SMU_0409/G35SMU_2gyk.xlsx
+++ b/G35SMU_0409/G35SMU_2gyk.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
-  <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB861C4-4214-42D1-BC33-9D6517E742FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399998E3-75C5-48D9-8EDE-BAE57E0B218D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="autó" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,18 @@
     <sheet name="b" sheetId="3" r:id="rId3"/>
     <sheet name="c" sheetId="4" r:id="rId4"/>
     <sheet name="d" sheetId="5" r:id="rId5"/>
-    <sheet name="Munka9" sheetId="9" r:id="rId6"/>
+    <sheet name="kimutatás" sheetId="9" r:id="rId6"/>
     <sheet name="e" sheetId="6" r:id="rId7"/>
-    <sheet name="f" sheetId="7" r:id="rId8"/>
-    <sheet name="g" sheetId="8" r:id="rId9"/>
+    <sheet name="Munka1" sheetId="10" r:id="rId8"/>
+    <sheet name="f" sheetId="7" r:id="rId9"/>
+    <sheet name="g" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">d!$A$3:$F$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -473,12 +474,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -506,11 +501,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -522,33 +523,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -714,7 +688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{862A0E0B-5076-4177-B90E-5CB82311E193}" name="Kimutatás1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{862A0E0B-5076-4177-B90E-5CB82311E193}" name="Kimutatás1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Értékek" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1059,7 +1033,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,232 +1046,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
         <v>1993</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>280000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
         <v>1991</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>230000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1996</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>423000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>301000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>480000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>240000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>299000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
         <v>330000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
         <v>1992</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>320000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="17">
         <v>175000</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
     </row>
@@ -1311,11 +1285,267 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB161EC-4AB2-4B45-B23D-A90E9B7411D9}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1993</v>
+      </c>
+      <c r="E3" s="5">
+        <v>280000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1991</v>
+      </c>
+      <c r="E4" s="11">
+        <v>230000</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1996</v>
+      </c>
+      <c r="E5" s="14">
+        <v>423000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
+        <v>301000</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
+        <v>480000</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1992</v>
+      </c>
+      <c r="E8" s="14">
+        <v>240000</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
+        <v>299000</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
+        <v>330000</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1992</v>
+      </c>
+      <c r="E11" s="14">
+        <v>320000</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="17">
+        <v>175000</v>
+      </c>
+      <c r="F12" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EF3819-930B-498D-A272-0FB280085B34}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1334,438 +1564,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5">
         <v>1991</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>230000</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1994</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1994</v>
+      </c>
+      <c r="M3" s="5">
         <v>301000</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11">
         <v>1992</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>240000</v>
       </c>
-      <c r="F4" s="14">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="13">
+      <c r="J4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="11">
         <v>1992</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>240000</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1993</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>280000</v>
       </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="16">
-        <v>1994</v>
-      </c>
-      <c r="M5" s="16">
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1994</v>
+      </c>
+      <c r="M5" s="14">
         <v>299000</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>175000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>3</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="M6" s="16">
+      <c r="J6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="M6" s="14">
         <v>330000</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>299000</v>
       </c>
-      <c r="F7" s="17">
-        <v>2</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="F7" s="15">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="16">
+      <c r="J7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="14">
         <v>1996</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <v>423000</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>320000</v>
       </c>
-      <c r="F8" s="17">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="16">
-        <v>1994</v>
-      </c>
-      <c r="M8" s="16">
+      <c r="J8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1994</v>
+      </c>
+      <c r="M8" s="14">
         <v>480000</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>301000</v>
       </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="J9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="14">
         <v>1991</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="14">
         <v>230000</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
         <v>330000</v>
       </c>
-      <c r="F10" s="17">
-        <v>2</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="15">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="M10" s="16">
+      <c r="J10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="M10" s="14">
         <v>175000</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E11" s="14">
         <v>480000</v>
       </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="J11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="14">
         <v>1993</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <v>280000</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="17">
         <v>1996</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>423000</v>
       </c>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="J12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="17">
         <v>1992</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="17">
         <v>320000</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1800,232 +2030,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
         <v>1993</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>280000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
         <v>1991</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>230000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1996</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>423000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>301000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>480000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>240000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>299000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
         <v>330000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
         <v>1992</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>320000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="17">
         <v>175000</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
     </row>
@@ -2090,232 +2320,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
         <v>1993</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>280000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
         <v>1991</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>230000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1996</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>423000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>301000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>480000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>240000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>299000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
         <v>330000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
         <v>1992</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>320000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="17">
         <v>175000</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
     </row>
@@ -2325,10 +2555,10 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>327500</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>327500</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2360,232 +2590,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11">
         <v>1993</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>280000</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1994</v>
-      </c>
-      <c r="E4" s="23">
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1994</v>
+      </c>
+      <c r="E4" s="21">
         <v>301000</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1992</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>240000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>299000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>330000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1996</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>423000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>480000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
         <v>1991</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>230000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E11" s="14">
         <v>175000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="17">
         <v>1992</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>320000</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2624,7 +2854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF55F210-DEAB-4CB9-BF43-7EB3A6BB01F8}">
   <dimension ref="A3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2637,15 +2867,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -2659,44 +2889,44 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="25">
         <v>520000</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>1073000</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>1593000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="25">
         <v>704000</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>781000</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>1485000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>1224000</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>1854000</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>3078000</v>
       </c>
     </row>
@@ -2709,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04471E4B-F4CF-4092-9FE7-C26F0E90811A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2723,232 +2953,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
         <v>1993</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>280000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
         <v>1991</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>230000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1996</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>423000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>301000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>480000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>240000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>299000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
         <v>330000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
         <v>1992</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>320000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="17">
         <v>175000</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
     </row>
@@ -2962,6 +3192,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BD3566-40E7-4579-AB33-CFD6FCF59C43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1601BD70-5957-4B6F-9B9C-F4B4DC8FF353}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2979,488 +3223,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
         <v>1993</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>280000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
         <v>1991</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>230000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14">
         <v>1996</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>423000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E6" s="14">
         <v>301000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E7" s="14">
         <v>480000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14">
         <v>1992</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>240000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E9" s="14">
         <v>299000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1994</v>
+      </c>
+      <c r="E10" s="14">
         <v>330000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
         <v>1992</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>320000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="B12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1994</v>
+      </c>
+      <c r="E12" s="17">
         <v>175000</v>
       </c>
-      <c r="F12" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB161EC-4AB2-4B45-B23D-A90E9B7411D9}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1993</v>
-      </c>
-      <c r="E3" s="7">
-        <v>280000</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1991</v>
-      </c>
-      <c r="E4" s="13">
-        <v>230000</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1996</v>
-      </c>
-      <c r="E5" s="16">
-        <v>423000</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E6" s="16">
-        <v>301000</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E7" s="16">
-        <v>480000</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1992</v>
-      </c>
-      <c r="E8" s="16">
-        <v>240000</v>
-      </c>
-      <c r="F8" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E9" s="16">
-        <v>299000</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1994</v>
-      </c>
-      <c r="E10" s="16">
-        <v>330000</v>
-      </c>
-      <c r="F10" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1992</v>
-      </c>
-      <c r="E11" s="16">
-        <v>320000</v>
-      </c>
-      <c r="F11" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1994</v>
-      </c>
-      <c r="E12" s="19">
-        <v>175000</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="F12" s="18">
         <v>3</v>
       </c>
     </row>
